--- a/Documentatie/Vergaderingen/Notulen/notulen week 4.xlsx
+++ b/Documentatie/Vergaderingen/Notulen/notulen week 4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\barrocit\BarrocIT\Documentatie\Planning\Notulen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\BarrocIT\Documentatie\Vergaderingen\Notulen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,12 +41,6 @@
     <t>Verslag overleg op</t>
   </si>
   <si>
-    <t>Aanwezig: Maarten, Kim, Damian</t>
-  </si>
-  <si>
-    <t>Afwezig: N.V.T</t>
-  </si>
-  <si>
     <t>Notulen aan: Maarten, Kim, Damian, Fedde</t>
   </si>
   <si>
@@ -80,9 +74,6 @@
     <t>We hebben besproken wat wij willen bereiken aan het einde vd week</t>
   </si>
   <si>
-    <t>We hebben besproken dat we hopen dat kim woensdagmiddag door kan werken ivm met haar awezigheid op woesndag ochtend</t>
-  </si>
-  <si>
     <t>We hebben bekeken of we nog op schema liggen en wat we moeten doen om op schema te blijven.</t>
   </si>
   <si>
@@ -108,6 +99,15 @@
   </si>
   <si>
     <t>maandag 28-09-2015 09:45</t>
+  </si>
+  <si>
+    <t>Afwezig: Kim</t>
+  </si>
+  <si>
+    <t>Aanwezig: Maarten, Damian, Fedde</t>
+  </si>
+  <si>
+    <t>We hebben besproken dat we hopen dat kim woensdagmiddag door kan werken ivm met haar afwezigheid op woesndag ochtend</t>
   </si>
 </sst>
 </file>
@@ -627,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,7 +663,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="26"/>
@@ -684,7 +684,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="26"/>
@@ -705,7 +705,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="26"/>
@@ -774,19 +774,19 @@
     </row>
     <row r="7" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="3"/>
@@ -803,19 +803,19 @@
     </row>
     <row r="8" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>22</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>25</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="3"/>
@@ -832,19 +832,19 @@
     </row>
     <row r="9" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>22</v>
-      </c>
       <c r="D9" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="10"/>
@@ -861,55 +861,55 @@
     </row>
     <row r="10" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>15</v>
-      </c>
       <c r="E11" s="18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F12" s="23"/>
     </row>
@@ -1053,18 +1053,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1117,14 +1117,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79336D9A-F347-4BF9-A03C-2F519BF74106}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F91946DA-1D0C-4852-AC5F-029A4620CB68}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1134,6 +1126,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79336D9A-F347-4BF9-A03C-2F519BF74106}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
